--- a/CountryData/Saudi Arabia/Saudi Arabia_Workbook.xlsx
+++ b/CountryData/Saudi Arabia/Saudi Arabia_Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Saudi Arabia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patti\OneDrive\Documents\ElledMap\CountryData\Saudi Arabia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7AA6CD88-9424-47FA-AA12-3C4EE06916ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D809D1-34A7-414E-A65C-27F4E2C1CB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Saudi Arabia_Popup" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> November 2020 – </t>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>December 2017 –</t>
     </r>
     <r>
       <rPr>
@@ -100,12 +107,88 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Aramco Announces Expansion of its Flagship Localization Program</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t> Saudi Aramco Lifts Spending Plans to $414 Billion Over Next Decade</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">September 2019 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Saudi Arabia Splits Industry and Mining From Energy Ministry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">May 2020 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Saudi Arabia Unveils New Measures to Support Mining, Industry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>September 2020 –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Local Content Authority Policies Designed to Draw Foreign Investment, Says CEO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>November 2020 –</t>
     </r>
     <r>
       <rPr>
@@ -127,18 +210,79 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Local Content Authority Policies Designed to Draw Foreign Investment, Says CEO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>May 2020 –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
+      <t>Aramco Announces Expansion of its Flagship Localization Program</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Carla Sertin (2021) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">How Saudi Aramco's Localisation Programme Helped Battle the Pandemic </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IGF (2018) –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> IGF Local Content Guidance Case Study Saudi Arabia: National Capacity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
-        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Damilola Olawuyi (2018) –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -154,127 +298,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Saudi Arabia Unveils New Measures to Support Mining, Industry</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">September 2019 – </t>
+      <t xml:space="preserve">Local Content Requirements in Oil and Gas Contracts: Regional Trends in the Middle East and North Africa </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Saudi Arabia Splits Industry and Mining From Energy Ministry</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>December 2017 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Saudi Aramco Lifts Spending Plans to $414 Billion Over Next Decade</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Carla Sertin (2021) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>How Saudi Aramco's Localisation Programme Helped Battle the Pandemic</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>IGF (2018) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IGF Local Content Guidance Case Study Saudi Arabia: National Capacity</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Damilola Olawuyi (2018) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Local Content Requirements in Oil and Gas Contracts: Regional Trends in the Middle East and North Africa</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Paywall) </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Paywall)</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -517,6 +559,29 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -917,7 +982,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -932,7 +997,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -964,13 +1028,21 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1327,8 +1399,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F29"/>
@@ -1340,11 +1412,14 @@
     <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="17"/>
+    </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1353,44 +1428,44 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>40</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1400,87 +1475,87 @@
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:5" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="B17" s="21"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1489,119 +1564,119 @@
       <c r="A18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="10"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="10"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=SA"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=SA"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=SA"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://atlas.cid.harvard.edu/countries/188/export-basket"/>
-    <hyperlink ref="A13" r:id="rId6" display="https://www.mof.gov.sa/en/Documents/Government_Tenders_and_Procurement_Law.pdf"/>
-    <hyperlink ref="A16" r:id="rId7" display="https://www.aramco.com/en/news-media/news/2020/aramco-announces-expansion-of-its-flagship-localization-program"/>
-    <hyperlink ref="A17" r:id="rId8" display="http://argaam.com/en/article/articledetail/id/1408073"/>
-    <hyperlink ref="A18" r:id="rId9" display="https://www.arabnews.com/node/1670266/business-economy"/>
-    <hyperlink ref="A19" r:id="rId10" display="https://www.reuters.com/article/us-saudi-politics/saudi-arabia-splits-industry-and-mining-from-energy-ministry-idUSKCN1VK2CV"/>
-    <hyperlink ref="A20" r:id="rId11" display="https://www.reuters.com/article/saudi-oil-aramco-idINKBN1E60ZC"/>
-    <hyperlink ref="A23" r:id="rId12" display="https://www.oilandgasmiddleeast.com/drilling-production/37941-how-saudi-aramcos-localisation-programme-helped-battle-the-pandemic"/>
-    <hyperlink ref="A24" r:id="rId13" display="https://www.iisd.org/sites/default/files/publications/case-study-saudi-arabia-national-capacity.pdf"/>
-    <hyperlink ref="A25" r:id="rId14" display="https://www.tandfonline.com/doi/abs/10.1080/02646811.2018.1477494?journalCode=rnrl20&amp;"/>
-    <hyperlink ref="A28" r:id="rId15" display="https://www.aramco.com/en/creating-value/sustainable-business-operations/commercial-ecosystem"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=SA" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=SA" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=SA" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://atlas.cid.harvard.edu/countries/188/export-basket" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A16" r:id="rId7" display=" November 2020 – Aramco Announces Expansion of its Flagship Localization Program" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A25" r:id="rId13" display="https://www.tandfonline.com/doi/abs/10.1080/02646811.2018.1477494?journalCode=rnrl20&amp;" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A28" r:id="rId14" display="https://www.aramco.com/en/creating-value/sustainable-business-operations/commercial-ecosystem" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A23" r:id="rId15" xr:uid="{7D9200F2-4F2D-4B3E-8650-463DC144429A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId16"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId16"/>
   <webPublishItems count="1">
-    <webPublishItem id="18083" divId="Saudi Arabia_Workbook_18083" sourceType="range" sourceRef="A1:F29" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Saudi Arabia\Saudi Arabia_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="8617" divId="Saudi Arabia_Workbook_8617" sourceType="range" sourceRef="A1:E29" destinationFile="C:\Users\patti\OneDrive\Documents\ElledMap\CountryData\Saudi Arabia\Saudi Arabia_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/CountryData/Saudi Arabia/Saudi Arabia_Workbook.xlsx
+++ b/CountryData/Saudi Arabia/Saudi Arabia_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patti\OneDrive\Documents\ElledMap\CountryData\Saudi Arabia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D809D1-34A7-414E-A65C-27F4E2C1CB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97D7834-B233-4693-BEED-E8E9CB66723F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26700" yWindow="5220" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Saudi Arabia_Popup" sheetId="1" r:id="rId1"/>
@@ -1403,7 +1403,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F29"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1675,8 +1675,5 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId16"/>
-  <webPublishItems count="1">
-    <webPublishItem id="8617" divId="Saudi Arabia_Workbook_8617" sourceType="range" sourceRef="A1:E29" destinationFile="C:\Users\patti\OneDrive\Documents\ElledMap\CountryData\Saudi Arabia\Saudi Arabia_Popup.htm" autoRepublish="1"/>
-  </webPublishItems>
 </worksheet>
 </file>